--- a/outputs-r202/g__Dialister.xlsx
+++ b/outputs-r202/g__Dialister.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -633,6 +638,11 @@
           <t>s__Dialister hominis</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>s__Dialister hominis(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -711,6 +721,11 @@
           <t>s__Dialister invisus</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>s__Dialister invisus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -785,6 +800,11 @@
         <v>0.9897404797220929</v>
       </c>
       <c r="X4" t="inlineStr">
+        <is>
+          <t>s__Dialister sp900314595</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>s__Dialister sp900314595</t>
         </is>

--- a/outputs-r202/g__Dialister.xlsx
+++ b/outputs-r202/g__Dialister.xlsx
@@ -564,166 +564,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG411.fasta</t>
+          <t>RUG005.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09632840661596689</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0825063054148279</v>
+        <v>0.007508820978800247</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04314927293021133</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04314927293021131</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04314927293021131</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04314927293021133</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04314927293021133</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04314927293021133</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04447837233714662</v>
+        <v>0.99249117885635</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04314927293021144</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04314927293021144</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04314927293021144</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04314927293021144</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04314927293021144</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04314927293021144</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04314927293021144</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0431492729303412</v>
+        <v>9.753658727036239e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04314927293021131</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04314927293021131</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04314927581833553</v>
+        <v>1.547186963204159e-10</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04314927293021128</v>
+        <v>2.220117419703898e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09632840661596689</v>
+        <v>0.99249117885635</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>s__Dialister hominis</t>
+          <t>s__Dialister sp900314595</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>s__Dialister hominis(reject)</t>
+          <t>s__Dialister sp900314595</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG781.fasta</t>
+          <t>hRUG872.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.452741482458655e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2525047251170428</v>
+        <v>3.772750037232581e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>2.452741482458654e-12</v>
+        <v>0.4909841512422021</v>
       </c>
       <c r="E3" t="n">
-        <v>2.452741482458654e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.452741482458654e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.452741482458658e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.452741482458658e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.452741482458658e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03467470741579127</v>
+        <v>4.957623441011491e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>1.028435386352588e-08</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.452741482458651e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>2.452741482458662e-12</v>
+        <v>0.01803170097240052</v>
       </c>
       <c r="N3" t="n">
-        <v>2.452741482458662e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.452741482458659e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2243053477918671</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.452741482458588e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>2.452741482458862e-12</v>
+        <v>0.4909836142951967</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2440662960045311</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>2.452741482458648e-12</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003826173475441549</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2440662960045311</v>
+        <v>2.226625422929623e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2525047251170428</v>
+        <v>0.4909841512422021</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>s__Dialister invisus</t>
+          <t>s__Dialister sp000434475</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>s__Dialister invisus(reject)</t>
+          <t>s__Dialister sp000434475(reject)</t>
         </is>
       </c>
     </row>
@@ -734,70 +734,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01025952026656468</v>
+        <v>0.02108104110625564</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9897404797220929</v>
+        <v>0.9789189588830562</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.085473763942669e-11</v>
+        <v>9.739721738688461e-12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.101803269923968e-13</v>
+        <v>5.711189675353693e-13</v>
       </c>
       <c r="V4" t="n">
-        <v>2.220119354786632e-14</v>
+        <v>2.220126909716425e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9897404797220929</v>
+        <v>0.9789189588830562</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
